--- a/app/data/absenteeism_data_49.xlsx
+++ b/app/data/absenteeism_data_49.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>51341</v>
+        <v>65446</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laís Correia</t>
+          <t>Breno Freitas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,271 +497,271 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>10327.46</v>
+        <v>7302.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7292</v>
+        <v>76922</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Castro</t>
+          <t>João Vitor Porto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>3575.88</v>
+        <v>12311.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56073</v>
+        <v>77723</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enrico Jesus</t>
+          <t>Julia Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45104</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>4167.12</v>
+        <v>9653.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49243</v>
+        <v>12199</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luana Cunha</t>
+          <t>Luana Correia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>9826.469999999999</v>
+        <v>9501.639999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22905</v>
+        <v>5228</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Ferreira</t>
+          <t>Ana Sophia Moraes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45084</v>
+        <v>45100</v>
       </c>
       <c r="G6" t="n">
-        <v>7253.55</v>
+        <v>5171.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99147</v>
+        <v>86422</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitória Lopes</t>
+          <t>João Lucas Fernandes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>9056.59</v>
+        <v>9726.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>57554</v>
+        <v>70845</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Isabella Barros</t>
+          <t>Helena da Mata</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>12350.94</v>
+        <v>9203.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6487</v>
+        <v>93430</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bruna Aragão</t>
+          <t>Carlos Eduardo Moraes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45096</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>10127.77</v>
+        <v>8471.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24573</v>
+        <v>97545</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Moraes</t>
+          <t>Laura Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>4547.6</v>
+        <v>9568.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25340</v>
+        <v>35560</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pietro Nascimento</t>
+          <t>Clarice Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>9281.52</v>
+        <v>10253.07</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_49.xlsx
+++ b/app/data/absenteeism_data_49.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58603</v>
+        <v>97544</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leandro Viana</t>
+          <t>Davi Luiz Pereira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>11402.7</v>
+        <v>6578.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95088</v>
+        <v>3471</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raquel Moraes</t>
+          <t>Eloah Teixeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,27 +523,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>3163.99</v>
+        <v>5440.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43433</v>
+        <v>53430</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nathan da Paz</t>
+          <t>Lucca Nascimento</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,24 +555,24 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>9601.200000000001</v>
+        <v>6298.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70109</v>
+        <v>42572</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stephany da Luz</t>
+          <t>Kevin da Cruz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,85 +581,85 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>8776.92</v>
+        <v>3386.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22869</v>
+        <v>81702</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vinicius da Conceição</t>
+          <t>Amanda Gonçalves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>2654.42</v>
+        <v>9486.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33844</v>
+        <v>69041</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juan Correia</t>
+          <t>Nina Silva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>11246.95</v>
+        <v>3096.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28992</v>
+        <v>17355</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Raul Araújo</t>
+          <t>Valentina Sales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>3760.4</v>
+        <v>9802.129999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33353</v>
+        <v>50079</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Sophie Porto</t>
+          <t>Pedro Henrique Fogaça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>2920.19</v>
+        <v>10012.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5111</v>
+        <v>67401</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Miguel Barbosa</t>
+          <t>Igor Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>11684.68</v>
+        <v>10686.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30127</v>
+        <v>709</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Guilherme Farias</t>
+          <t>André da Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>2552.55</v>
+        <v>10790.07</v>
       </c>
     </row>
   </sheetData>
